--- a/Test Data/Shiny Test Data.xlsx
+++ b/Test Data/Shiny Test Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick.lyon/Documents/Jobs/2021_HerbVar Network Admin/HerbVar-Data-Portal/Test Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49EAA6-9D9C-884D-B48C-20E0C1D64FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE30347-6236-3942-A919-C66EFF2044EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46140" yWindow="5320" windowWidth="28040" windowHeight="17040" activeTab="6" xr2:uid="{75175CB1-0094-B143-8246-DA8391BF8CEA}"/>
+    <workbookView xWindow="-46140" yWindow="5320" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{75175CB1-0094-B143-8246-DA8391BF8CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="siteData" sheetId="1" r:id="rId1"/>
     <sheet name="densityData" sheetId="3" r:id="rId2"/>
     <sheet name="plantData" sheetId="4" r:id="rId3"/>
     <sheet name="reproData" sheetId="5" r:id="rId4"/>
-    <sheet name="herbivoredata" sheetId="6" r:id="rId5"/>
+    <sheet name="herbivoreData" sheetId="6" r:id="rId5"/>
     <sheet name="newColumns" sheetId="7" r:id="rId6"/>
     <sheet name="notes" sheetId="8" r:id="rId7"/>
   </sheets>
@@ -643,10 +643,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F942DFF-2872-674D-B810-28E9EBD84B24}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614E6276-CB20-7040-B561-DB3DD6FF9881}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>

--- a/Test Data/Shiny Test Data.xlsx
+++ b/Test Data/Shiny Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick.lyon/Documents/Jobs/2021_HerbVar Network Admin/HerbVar-Data-Portal/Test Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE30347-6236-3942-A919-C66EFF2044EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6785AF-3D75-494E-85E7-F37622CBEB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46140" yWindow="5320" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{75175CB1-0094-B143-8246-DA8391BF8CEA}"/>
+    <workbookView xWindow="-49140" yWindow="5880" windowWidth="16860" windowHeight="17480" activeTab="6" xr2:uid="{75175CB1-0094-B143-8246-DA8391BF8CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="siteData" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>tab</t>
   </si>
@@ -81,10 +81,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>test dataset created</t>
+    <t>percHerbPlant</t>
+  </si>
+  <si>
+    <t>numLeaves</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
   </si>
 </sst>
 </file>
@@ -128,9 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,46 +547,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C7A464-06C5-C041-960C-618E59D56116}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>99</v>
+      </c>
+      <c r="C4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +687,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F942DFF-2872-674D-B810-28E9EBD84B24}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,12 +783,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614E6276-CB20-7040-B561-DB3DD6FF9881}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,14 +801,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
